--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Version.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Version.xlsx
@@ -3831,10 +3831,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J6035"/>
+  <dimension ref="A1:J5879"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A5869" workbookViewId="0">
+      <selection activeCell="A5880" sqref="A5880:B5880"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
@@ -52261,942 +52261,6 @@
         <v>124040002</v>
       </c>
     </row>
-    <row r="5880" spans="1:1">
-      <c r="A5880" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5881" spans="1:1">
-      <c r="A5881" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5882" spans="1:1">
-      <c r="A5882" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5883" spans="1:1">
-      <c r="A5883" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5884" spans="1:1">
-      <c r="A5884" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5885" spans="1:1">
-      <c r="A5885" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5886" spans="1:1">
-      <c r="A5886" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5887" spans="1:1">
-      <c r="A5887" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5888" spans="1:1">
-      <c r="A5888" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5889" spans="1:1">
-      <c r="A5889" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5890" spans="1:1">
-      <c r="A5890" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5891" spans="1:1">
-      <c r="A5891" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5892" spans="1:1">
-      <c r="A5892" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5893" spans="1:1">
-      <c r="A5893" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5894" spans="1:1">
-      <c r="A5894" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5895" spans="1:1">
-      <c r="A5895" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5896" spans="1:1">
-      <c r="A5896" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5897" spans="1:1">
-      <c r="A5897" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5898" spans="1:1">
-      <c r="A5898" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5899" spans="1:1">
-      <c r="A5899" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5900" spans="1:1">
-      <c r="A5900" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5901" spans="1:1">
-      <c r="A5901" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5902" spans="1:1">
-      <c r="A5902" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5903" spans="1:1">
-      <c r="A5903" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5904" spans="1:1">
-      <c r="A5904" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5905" spans="1:1">
-      <c r="A5905" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5906" spans="1:1">
-      <c r="A5906" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5907" spans="1:1">
-      <c r="A5907" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5908" spans="1:1">
-      <c r="A5908" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5909" spans="1:1">
-      <c r="A5909" s="1" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5910" spans="1:1">
-      <c r="A5910" s="1" t="str">
-        <f t="shared" ref="A5910:A5973" si="52">IF(B5910*10+C5910&gt;0,B5910*10+C5910,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5911" spans="1:1">
-      <c r="A5911" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5912" spans="1:1">
-      <c r="A5912" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5913" spans="1:1">
-      <c r="A5913" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5914" spans="1:1">
-      <c r="A5914" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5915" spans="1:1">
-      <c r="A5915" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5916" spans="1:1">
-      <c r="A5916" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5917" spans="1:1">
-      <c r="A5917" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5918" spans="1:1">
-      <c r="A5918" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5919" spans="1:1">
-      <c r="A5919" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5920" spans="1:1">
-      <c r="A5920" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5921" spans="1:1">
-      <c r="A5921" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5922" spans="1:1">
-      <c r="A5922" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5923" spans="1:1">
-      <c r="A5923" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5924" spans="1:1">
-      <c r="A5924" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5925" spans="1:1">
-      <c r="A5925" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5926" spans="1:1">
-      <c r="A5926" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5927" spans="1:1">
-      <c r="A5927" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5928" spans="1:1">
-      <c r="A5928" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5929" spans="1:1">
-      <c r="A5929" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5930" spans="1:1">
-      <c r="A5930" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5931" spans="1:1">
-      <c r="A5931" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5932" spans="1:1">
-      <c r="A5932" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5933" spans="1:1">
-      <c r="A5933" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5934" spans="1:1">
-      <c r="A5934" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5935" spans="1:1">
-      <c r="A5935" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5936" spans="1:1">
-      <c r="A5936" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5937" spans="1:1">
-      <c r="A5937" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5938" spans="1:1">
-      <c r="A5938" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5939" spans="1:1">
-      <c r="A5939" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5940" spans="1:1">
-      <c r="A5940" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5941" spans="1:1">
-      <c r="A5941" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5942" spans="1:1">
-      <c r="A5942" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5943" spans="1:1">
-      <c r="A5943" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5944" spans="1:1">
-      <c r="A5944" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5945" spans="1:1">
-      <c r="A5945" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5946" spans="1:1">
-      <c r="A5946" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5947" spans="1:1">
-      <c r="A5947" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5948" spans="1:1">
-      <c r="A5948" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5949" spans="1:1">
-      <c r="A5949" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5950" spans="1:1">
-      <c r="A5950" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5951" spans="1:1">
-      <c r="A5951" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5952" spans="1:1">
-      <c r="A5952" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5953" spans="1:1">
-      <c r="A5953" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5954" spans="1:1">
-      <c r="A5954" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5955" spans="1:1">
-      <c r="A5955" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5956" spans="1:1">
-      <c r="A5956" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5957" spans="1:1">
-      <c r="A5957" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5958" spans="1:1">
-      <c r="A5958" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5959" spans="1:1">
-      <c r="A5959" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5960" spans="1:1">
-      <c r="A5960" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5961" spans="1:1">
-      <c r="A5961" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5962" spans="1:1">
-      <c r="A5962" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5963" spans="1:1">
-      <c r="A5963" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5964" spans="1:1">
-      <c r="A5964" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5965" spans="1:1">
-      <c r="A5965" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5966" spans="1:1">
-      <c r="A5966" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5967" spans="1:1">
-      <c r="A5967" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5968" spans="1:1">
-      <c r="A5968" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5969" spans="1:1">
-      <c r="A5969" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5970" spans="1:1">
-      <c r="A5970" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5971" spans="1:1">
-      <c r="A5971" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5972" spans="1:1">
-      <c r="A5972" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5973" spans="1:1">
-      <c r="A5973" s="1" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5974" spans="1:1">
-      <c r="A5974" s="1" t="str">
-        <f t="shared" ref="A5974:A6035" si="53">IF(B5974*10+C5974&gt;0,B5974*10+C5974,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5975" spans="1:1">
-      <c r="A5975" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5976" spans="1:1">
-      <c r="A5976" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5977" spans="1:1">
-      <c r="A5977" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5978" spans="1:1">
-      <c r="A5978" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5979" spans="1:1">
-      <c r="A5979" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5980" spans="1:1">
-      <c r="A5980" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5981" spans="1:1">
-      <c r="A5981" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5982" spans="1:1">
-      <c r="A5982" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5983" spans="1:1">
-      <c r="A5983" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5984" spans="1:1">
-      <c r="A5984" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5985" spans="1:1">
-      <c r="A5985" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5986" spans="1:1">
-      <c r="A5986" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5987" spans="1:1">
-      <c r="A5987" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5988" spans="1:1">
-      <c r="A5988" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5989" spans="1:1">
-      <c r="A5989" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5990" spans="1:1">
-      <c r="A5990" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5991" spans="1:1">
-      <c r="A5991" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5992" spans="1:1">
-      <c r="A5992" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5993" spans="1:1">
-      <c r="A5993" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5994" spans="1:1">
-      <c r="A5994" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5995" spans="1:1">
-      <c r="A5995" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5996" spans="1:1">
-      <c r="A5996" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5997" spans="1:1">
-      <c r="A5997" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5998" spans="1:1">
-      <c r="A5998" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5999" spans="1:1">
-      <c r="A5999" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6000" spans="1:1">
-      <c r="A6000" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6001" spans="1:1">
-      <c r="A6001" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6002" spans="1:1">
-      <c r="A6002" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6003" spans="1:1">
-      <c r="A6003" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6004" spans="1:1">
-      <c r="A6004" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6005" spans="1:1">
-      <c r="A6005" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6006" spans="1:1">
-      <c r="A6006" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6007" spans="1:1">
-      <c r="A6007" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6008" spans="1:1">
-      <c r="A6008" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6009" spans="1:1">
-      <c r="A6009" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6010" spans="1:1">
-      <c r="A6010" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6011" spans="1:1">
-      <c r="A6011" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6012" spans="1:1">
-      <c r="A6012" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6013" spans="1:1">
-      <c r="A6013" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6014" spans="1:1">
-      <c r="A6014" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6015" spans="1:1">
-      <c r="A6015" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6016" spans="1:1">
-      <c r="A6016" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6017" spans="1:1">
-      <c r="A6017" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6018" spans="1:1">
-      <c r="A6018" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6019" spans="1:1">
-      <c r="A6019" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6020" spans="1:1">
-      <c r="A6020" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6021" spans="1:1">
-      <c r="A6021" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6022" spans="1:1">
-      <c r="A6022" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6023" spans="1:1">
-      <c r="A6023" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6024" spans="1:1">
-      <c r="A6024" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6025" spans="1:1">
-      <c r="A6025" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6026" spans="1:1">
-      <c r="A6026" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6027" spans="1:1">
-      <c r="A6027" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6028" spans="1:1">
-      <c r="A6028" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6029" spans="1:1">
-      <c r="A6029" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6030" spans="1:1">
-      <c r="A6030" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6031" spans="1:1">
-      <c r="A6031" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6032" spans="1:1">
-      <c r="A6032" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6033" spans="1:1">
-      <c r="A6033" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6034" spans="1:1">
-      <c r="A6034" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6035" spans="1:1">
-      <c r="A6035" s="1" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Version.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServer/Resource/AncientBooks/Version.xlsx
@@ -106,7 +106,7 @@
     <t>otherAuthor</t>
   </si>
   <si>
-    <t>authorDescribe</t>
+    <t>authorNotes</t>
   </si>
   <si>
     <t>內府刊本</t>
@@ -3836,8 +3836,8 @@
   <sheetPr/>
   <dimension ref="A1:J5879"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A3617" workbookViewId="0">
-      <selection activeCell="A3635" sqref="A3635"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
